--- a/data/norm.cause-of-death-2007.xlsx
+++ b/data/norm.cause-of-death-2007.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,90 +440,85 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -546,57 +541,54 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="L2" t="n">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="M2" t="n">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="N2" t="n">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O2" t="n">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="P2" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q2" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="R2" t="n">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="S2" t="n">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="T2" t="n">
-        <v>129</v>
-      </c>
-      <c r="U2" t="n">
         <v>140</v>
       </c>
     </row>
@@ -617,57 +609,54 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I3" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="K3" t="n">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="L3" t="n">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="M3" t="n">
-        <v>408</v>
+        <v>555</v>
       </c>
       <c r="N3" t="n">
-        <v>555</v>
+        <v>743</v>
       </c>
       <c r="O3" t="n">
-        <v>743</v>
+        <v>769</v>
       </c>
       <c r="P3" t="n">
+        <v>828</v>
+      </c>
+      <c r="Q3" t="n">
         <v>769</v>
       </c>
-      <c r="Q3" t="n">
-        <v>828</v>
-      </c>
       <c r="R3" t="n">
-        <v>769</v>
+        <v>567</v>
       </c>
       <c r="S3" t="n">
-        <v>567</v>
+        <v>334</v>
       </c>
       <c r="T3" t="n">
-        <v>334</v>
-      </c>
-      <c r="U3" t="n">
         <v>217</v>
       </c>
     </row>
@@ -688,57 +677,54 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>4</v>
-      </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
+        <v>8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21</v>
+      </c>
+      <c r="R4" t="n">
         <v>14</v>
       </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>21</v>
-      </c>
       <c r="S4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
-      </c>
-      <c r="U4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -759,57 +745,54 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K5" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="L5" t="n">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="M5" t="n">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="N5" t="n">
-        <v>274</v>
+        <v>475</v>
       </c>
       <c r="O5" t="n">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="P5" t="n">
-        <v>514</v>
+        <v>637</v>
       </c>
       <c r="Q5" t="n">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="R5" t="n">
-        <v>649</v>
+        <v>606</v>
       </c>
       <c r="S5" t="n">
-        <v>606</v>
+        <v>440</v>
       </c>
       <c r="T5" t="n">
-        <v>440</v>
-      </c>
-      <c r="U5" t="n">
         <v>371</v>
       </c>
     </row>
@@ -830,57 +813,54 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="L6" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N6" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O6" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="R6" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
-      </c>
-      <c r="U6" t="n">
         <v>16</v>
       </c>
     </row>
@@ -901,57 +881,54 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
         <v>31</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K7" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="L7" t="n">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="M7" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="N7" t="n">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="O7" t="n">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="P7" t="n">
-        <v>389</v>
+        <v>547</v>
       </c>
       <c r="Q7" t="n">
-        <v>547</v>
+        <v>800</v>
       </c>
       <c r="R7" t="n">
-        <v>800</v>
+        <v>974</v>
       </c>
       <c r="S7" t="n">
-        <v>974</v>
+        <v>928</v>
       </c>
       <c r="T7" t="n">
-        <v>928</v>
-      </c>
-      <c r="U7" t="n">
         <v>929</v>
       </c>
     </row>
@@ -999,30 +976,27 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
-      </c>
-      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1093,9 +1067,6 @@
       <c r="T9" t="n">
         <v>0</v>
       </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1114,57 +1085,54 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G10" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="H10" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I10" t="n">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="J10" t="n">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="K10" t="n">
-        <v>330</v>
+        <v>520</v>
       </c>
       <c r="L10" t="n">
-        <v>520</v>
+        <v>949</v>
       </c>
       <c r="M10" t="n">
-        <v>949</v>
+        <v>1479</v>
       </c>
       <c r="N10" t="n">
-        <v>1479</v>
+        <v>2044</v>
       </c>
       <c r="O10" t="n">
-        <v>2044</v>
+        <v>2087</v>
       </c>
       <c r="P10" t="n">
-        <v>2087</v>
+        <v>2254</v>
       </c>
       <c r="Q10" t="n">
-        <v>2254</v>
+        <v>2382</v>
       </c>
       <c r="R10" t="n">
-        <v>2382</v>
+        <v>2111</v>
       </c>
       <c r="S10" t="n">
-        <v>2111</v>
+        <v>1797</v>
       </c>
       <c r="T10" t="n">
-        <v>1797</v>
-      </c>
-      <c r="U10" t="n">
         <v>1538</v>
       </c>
     </row>
@@ -1185,57 +1153,54 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="K11" t="n">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="L11" t="n">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="M11" t="n">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="N11" t="n">
-        <v>335</v>
+        <v>547</v>
       </c>
       <c r="O11" t="n">
-        <v>547</v>
+        <v>626</v>
       </c>
       <c r="P11" t="n">
-        <v>626</v>
+        <v>788</v>
       </c>
       <c r="Q11" t="n">
-        <v>788</v>
+        <v>1138</v>
       </c>
       <c r="R11" t="n">
-        <v>1138</v>
+        <v>951</v>
       </c>
       <c r="S11" t="n">
-        <v>951</v>
+        <v>853</v>
       </c>
       <c r="T11" t="n">
-        <v>853</v>
-      </c>
-      <c r="U11" t="n">
         <v>886</v>
       </c>
     </row>
@@ -1256,57 +1221,54 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="n">
-        <v>21</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>8</v>
-      </c>
       <c r="H12" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I12" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="J12" t="n">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="K12" t="n">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="L12" t="n">
-        <v>352</v>
+        <v>466</v>
       </c>
       <c r="M12" t="n">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="N12" t="n">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="O12" t="n">
-        <v>494</v>
+        <v>343</v>
       </c>
       <c r="P12" t="n">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="Q12" t="n">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="R12" t="n">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="S12" t="n">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="T12" t="n">
-        <v>95</v>
-      </c>
-      <c r="U12" t="n">
         <v>73</v>
       </c>
     </row>
@@ -1327,7 +1289,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1336,48 +1298,45 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>11</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" t="n">
         <v>5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>6</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>10</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1407,10 +1366,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1422,33 +1381,30 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
         <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
-      </c>
-      <c r="U14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -1469,57 +1425,54 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K15" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="N15" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O15" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P15" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="Q15" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R15" t="n">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="S15" t="n">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="T15" t="n">
-        <v>195</v>
-      </c>
-      <c r="U15" t="n">
         <v>169</v>
       </c>
     </row>
@@ -1590,9 +1543,6 @@
       <c r="T16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1611,57 +1561,54 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1135</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
-      </c>
-      <c r="U17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1682,59 +1629,56 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
+        <v>11</v>
+      </c>
+      <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="M18" t="n">
-        <v>11</v>
-      </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
         <v>2</v>
       </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1753,57 +1697,54 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H19" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J19" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="K19" t="n">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="L19" t="n">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="M19" t="n">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="N19" t="n">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="O19" t="n">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="P19" t="n">
-        <v>397</v>
+        <v>602</v>
       </c>
       <c r="Q19" t="n">
-        <v>602</v>
+        <v>1030</v>
       </c>
       <c r="R19" t="n">
-        <v>1030</v>
+        <v>1430</v>
       </c>
       <c r="S19" t="n">
-        <v>1430</v>
+        <v>2053</v>
       </c>
       <c r="T19" t="n">
-        <v>2053</v>
-      </c>
-      <c r="U19" t="n">
         <v>3206</v>
       </c>
     </row>
@@ -1824,57 +1765,54 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="E20" t="n">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="F20" t="n">
-        <v>110</v>
+        <v>503</v>
       </c>
       <c r="G20" t="n">
-        <v>503</v>
+        <v>1229</v>
       </c>
       <c r="H20" t="n">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="I20" t="n">
-        <v>1226</v>
+        <v>1023</v>
       </c>
       <c r="J20" t="n">
-        <v>1023</v>
+        <v>991</v>
       </c>
       <c r="K20" t="n">
-        <v>991</v>
+        <v>878</v>
       </c>
       <c r="L20" t="n">
-        <v>878</v>
+        <v>857</v>
       </c>
       <c r="M20" t="n">
-        <v>857</v>
+        <v>774</v>
       </c>
       <c r="N20" t="n">
-        <v>774</v>
+        <v>703</v>
       </c>
       <c r="O20" t="n">
-        <v>703</v>
+        <v>491</v>
       </c>
       <c r="P20" t="n">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="Q20" t="n">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="R20" t="n">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="S20" t="n">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="T20" t="n">
-        <v>197</v>
-      </c>
-      <c r="U20" t="n">
         <v>192</v>
       </c>
     </row>
@@ -1898,54 +1836,51 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
+        <v>32</v>
+      </c>
+      <c r="H21" t="n">
+        <v>25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>27</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18</v>
+      </c>
+      <c r="L21" t="n">
         <v>9</v>
-      </c>
-      <c r="H21" t="n">
-        <v>32</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>27</v>
-      </c>
-      <c r="K21" t="n">
-        <v>19</v>
-      </c>
-      <c r="L21" t="n">
-        <v>18</v>
       </c>
       <c r="M21" t="n">
         <v>9</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
         <v>4</v>
       </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1986,95 +1921,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2097,60 +2027,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L2" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="P2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="n">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="R2" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S2" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="T2" t="n">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="U2" t="n">
-        <v>101</v>
-      </c>
-      <c r="V2" t="n">
         <v>84</v>
       </c>
     </row>
@@ -2171,60 +2098,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J3" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="L3" t="n">
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="M3" t="n">
-        <v>197</v>
+        <v>335</v>
       </c>
       <c r="N3" t="n">
-        <v>335</v>
+        <v>520</v>
       </c>
       <c r="O3" t="n">
-        <v>520</v>
+        <v>648</v>
       </c>
       <c r="P3" t="n">
-        <v>648</v>
+        <v>609</v>
       </c>
       <c r="Q3" t="n">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="R3" t="n">
-        <v>641</v>
+        <v>583</v>
       </c>
       <c r="S3" t="n">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="T3" t="n">
-        <v>389</v>
+        <v>287</v>
       </c>
       <c r="U3" t="n">
-        <v>287</v>
-      </c>
-      <c r="V3" t="n">
         <v>193</v>
       </c>
     </row>
@@ -2248,57 +2172,54 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="n">
         <v>9</v>
       </c>
-      <c r="P4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>15</v>
       </c>
-      <c r="R4" t="n">
-        <v>9</v>
-      </c>
       <c r="S4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T4" t="n">
         <v>15</v>
       </c>
-      <c r="T4" t="n">
-        <v>11</v>
-      </c>
       <c r="U4" t="n">
-        <v>15</v>
-      </c>
-      <c r="V4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2322,57 +2243,54 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L5" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M5" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="N5" t="n">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="O5" t="n">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="P5" t="n">
-        <v>274</v>
+        <v>406</v>
       </c>
       <c r="Q5" t="n">
-        <v>406</v>
+        <v>546</v>
       </c>
       <c r="R5" t="n">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="S5" t="n">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="T5" t="n">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="U5" t="n">
-        <v>602</v>
-      </c>
-      <c r="V5" t="n">
         <v>440</v>
       </c>
     </row>
@@ -2399,54 +2317,51 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
         <v>10</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>13</v>
+      </c>
+      <c r="T6" t="n">
         <v>8</v>
       </c>
-      <c r="Q6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R6" t="n">
-        <v>9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>11</v>
-      </c>
-      <c r="T6" t="n">
-        <v>13</v>
-      </c>
       <c r="U6" t="n">
-        <v>8</v>
-      </c>
-      <c r="V6" t="n">
         <v>17</v>
       </c>
     </row>
@@ -2467,60 +2382,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>21</v>
       </c>
       <c r="K7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N7" t="n">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O7" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="P7" t="n">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="Q7" t="n">
-        <v>193</v>
+        <v>351</v>
       </c>
       <c r="R7" t="n">
-        <v>351</v>
+        <v>646</v>
       </c>
       <c r="S7" t="n">
-        <v>646</v>
+        <v>807</v>
       </c>
       <c r="T7" t="n">
-        <v>807</v>
+        <v>940</v>
       </c>
       <c r="U7" t="n">
-        <v>940</v>
-      </c>
-      <c r="V7" t="n">
         <v>1105</v>
       </c>
     </row>
@@ -2594,9 +2506,6 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2642,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2666,9 +2575,6 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2689,60 +2595,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
+        <v>24</v>
+      </c>
+      <c r="F10" t="n">
         <v>36</v>
       </c>
-      <c r="F10" t="n">
-        <v>24</v>
-      </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I10" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J10" t="n">
         <v>73</v>
       </c>
       <c r="K10" t="n">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="L10" t="n">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="M10" t="n">
-        <v>164</v>
+        <v>332</v>
       </c>
       <c r="N10" t="n">
-        <v>332</v>
+        <v>471</v>
       </c>
       <c r="O10" t="n">
-        <v>471</v>
+        <v>741</v>
       </c>
       <c r="P10" t="n">
-        <v>741</v>
+        <v>1026</v>
       </c>
       <c r="Q10" t="n">
-        <v>1026</v>
+        <v>1318</v>
       </c>
       <c r="R10" t="n">
-        <v>1318</v>
+        <v>1831</v>
       </c>
       <c r="S10" t="n">
-        <v>1831</v>
+        <v>1808</v>
       </c>
       <c r="T10" t="n">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="U10" t="n">
-        <v>1796</v>
-      </c>
-      <c r="V10" t="n">
         <v>1653</v>
       </c>
     </row>
@@ -2763,60 +2666,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L11" t="n">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="M11" t="n">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="N11" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="O11" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="P11" t="n">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="Q11" t="n">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="R11" t="n">
-        <v>414</v>
+        <v>631</v>
       </c>
       <c r="S11" t="n">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="T11" t="n">
-        <v>671</v>
+        <v>744</v>
       </c>
       <c r="U11" t="n">
-        <v>744</v>
-      </c>
-      <c r="V11" t="n">
         <v>844</v>
       </c>
     </row>
@@ -2837,60 +2737,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N12" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O12" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="n">
+        <v>77</v>
+      </c>
+      <c r="R12" t="n">
+        <v>118</v>
+      </c>
+      <c r="S12" t="n">
         <v>90</v>
       </c>
-      <c r="R12" t="n">
-        <v>77</v>
-      </c>
-      <c r="S12" t="n">
-        <v>118</v>
-      </c>
       <c r="T12" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="U12" t="n">
-        <v>69</v>
-      </c>
-      <c r="V12" t="n">
         <v>56</v>
       </c>
     </row>
@@ -2923,48 +2820,45 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>3</v>
       </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R13" t="n">
         <v>7</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>11</v>
-      </c>
-      <c r="V13" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2988,57 +2882,54 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="R14" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="S14" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="T14" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U14" t="n">
-        <v>25</v>
-      </c>
-      <c r="V14" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3062,57 +2953,54 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
+        <v>7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11</v>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="n">
-        <v>7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>11</v>
-      </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L15" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M15" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N15" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="O15" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="P15" t="n">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="Q15" t="n">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="R15" t="n">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="S15" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="T15" t="n">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="U15" t="n">
-        <v>73</v>
-      </c>
-      <c r="V15" t="n">
         <v>74</v>
       </c>
     </row>
@@ -3142,34 +3030,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -3184,9 +3072,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3207,25 +3092,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>833</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -3246,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -3255,12 +3140,9 @@
         <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3281,60 +3163,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>309</v>
+        <v>60</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
         <v>10</v>
       </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
         <v>8</v>
       </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>10</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>6</v>
-      </c>
-      <c r="N18" t="n">
-        <v>8</v>
       </c>
       <c r="O18" t="n">
         <v>6</v>
       </c>
       <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
         <v>6</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
-      </c>
       <c r="U18" t="n">
-        <v>6</v>
-      </c>
-      <c r="V18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3355,60 +3234,57 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28</v>
+      </c>
+      <c r="H19" t="n">
+        <v>31</v>
+      </c>
+      <c r="I19" t="n">
+        <v>36</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38</v>
+      </c>
+      <c r="K19" t="n">
         <v>33</v>
       </c>
-      <c r="E19" t="n">
-        <v>14</v>
-      </c>
-      <c r="F19" t="n">
-        <v>17</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16</v>
-      </c>
-      <c r="H19" t="n">
-        <v>28</v>
-      </c>
-      <c r="I19" t="n">
-        <v>31</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>36</v>
       </c>
-      <c r="K19" t="n">
-        <v>38</v>
-      </c>
-      <c r="L19" t="n">
-        <v>33</v>
-      </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N19" t="n">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="O19" t="n">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="P19" t="n">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="Q19" t="n">
-        <v>246</v>
+        <v>434</v>
       </c>
       <c r="R19" t="n">
-        <v>434</v>
+        <v>1023</v>
       </c>
       <c r="S19" t="n">
-        <v>1023</v>
+        <v>1419</v>
       </c>
       <c r="T19" t="n">
-        <v>1419</v>
+        <v>2513</v>
       </c>
       <c r="U19" t="n">
-        <v>2513</v>
-      </c>
-      <c r="V19" t="n">
         <v>4523</v>
       </c>
     </row>
@@ -3429,60 +3305,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F20" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="H20" t="n">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="I20" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J20" t="n">
-        <v>280</v>
+        <v>178</v>
       </c>
       <c r="K20" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" t="n">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="M20" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N20" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="O20" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="P20" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q20" t="n">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="R20" t="n">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="S20" t="n">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="T20" t="n">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="U20" t="n">
-        <v>128</v>
-      </c>
-      <c r="V20" t="n">
         <v>148</v>
       </c>
     </row>
@@ -3512,51 +3385,48 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
         <v>2</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
       <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
         <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>2</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2007.xlsx
+++ b/data/norm.cause-of-death-2007.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
